--- a/reports/Appendix Data.xlsx
+++ b/reports/Appendix Data.xlsx
@@ -2468,7 +2468,7 @@
   <dimension ref="B1:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C38" sqref="C3:C38"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
